--- a/NEBULA-Projektplan-v1.xlsx
+++ b/NEBULA-Projektplan-v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A94474AF-8128-4760-A5CE-05112DE2DD06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E46AEA65-C002-4E2E-8EE6-9716BCE51E5A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="11235" tabRatio="495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1714,11 +1714,83 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1744,86 +1816,14 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2350,10 +2350,10 @@
   <dimension ref="A1:RV86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="129" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2371,284 +2371,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:490" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="116" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="116" t="s">
+      <c r="F1" s="140"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="134">
+      <c r="I1" s="123">
         <v>2018</v>
       </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
-      <c r="AX1" s="134"/>
-      <c r="AY1" s="134"/>
-      <c r="AZ1" s="134"/>
-      <c r="BA1" s="134"/>
-      <c r="BB1" s="134"/>
-      <c r="BC1" s="134"/>
-      <c r="BD1" s="134"/>
-      <c r="BE1" s="134"/>
-      <c r="BF1" s="134"/>
-      <c r="BG1" s="134"/>
-      <c r="BH1" s="134"/>
-      <c r="BI1" s="134"/>
-      <c r="BJ1" s="134"/>
-      <c r="BK1" s="134"/>
-      <c r="BL1" s="134"/>
-      <c r="BM1" s="134"/>
-      <c r="BN1" s="134"/>
-      <c r="BO1" s="134"/>
-      <c r="BP1" s="134"/>
-      <c r="BQ1" s="134"/>
-      <c r="BR1" s="134"/>
-      <c r="BS1" s="134"/>
-      <c r="BT1" s="134"/>
-      <c r="BU1" s="134"/>
-      <c r="BV1" s="134"/>
-      <c r="BW1" s="134"/>
-      <c r="BX1" s="134"/>
-      <c r="BY1" s="134"/>
-      <c r="BZ1" s="134"/>
-      <c r="CA1" s="134"/>
-      <c r="CB1" s="134"/>
-      <c r="CC1" s="134"/>
-      <c r="CD1" s="134"/>
-      <c r="CE1" s="134"/>
-      <c r="CF1" s="134"/>
-      <c r="CG1" s="134"/>
-      <c r="CH1" s="134"/>
-      <c r="CI1" s="134"/>
-      <c r="CJ1" s="134"/>
-      <c r="CK1" s="134"/>
-      <c r="CL1" s="134"/>
-      <c r="CM1" s="134"/>
-      <c r="CN1" s="134"/>
-      <c r="CO1" s="134"/>
-      <c r="CP1" s="134"/>
-      <c r="CQ1" s="134"/>
-      <c r="CR1" s="134"/>
-      <c r="CS1" s="134"/>
-      <c r="CT1" s="134"/>
-      <c r="CU1" s="134"/>
-      <c r="CV1" s="134"/>
-      <c r="CW1" s="134"/>
-      <c r="CX1" s="134"/>
-      <c r="CY1" s="134"/>
-      <c r="CZ1" s="134"/>
-      <c r="DA1" s="134"/>
-      <c r="DB1" s="134"/>
-      <c r="DC1" s="134"/>
-      <c r="DD1" s="134"/>
-      <c r="DE1" s="134"/>
-      <c r="DF1" s="134"/>
-      <c r="DG1" s="134"/>
-      <c r="DH1" s="134"/>
-      <c r="DI1" s="134"/>
-      <c r="DJ1" s="134"/>
-      <c r="DK1" s="134"/>
-      <c r="DL1" s="134"/>
-      <c r="DM1" s="134"/>
-      <c r="DN1" s="134"/>
-      <c r="DO1" s="134"/>
-      <c r="DP1" s="134"/>
-      <c r="DQ1" s="134"/>
-      <c r="DR1" s="134"/>
-      <c r="DS1" s="134"/>
-      <c r="DT1" s="134"/>
-      <c r="DU1" s="134"/>
-      <c r="DV1" s="134"/>
-      <c r="DW1" s="134"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="123"/>
+      <c r="AZ1" s="123"/>
+      <c r="BA1" s="123"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+      <c r="BF1" s="123"/>
+      <c r="BG1" s="123"/>
+      <c r="BH1" s="123"/>
+      <c r="BI1" s="123"/>
+      <c r="BJ1" s="123"/>
+      <c r="BK1" s="123"/>
+      <c r="BL1" s="123"/>
+      <c r="BM1" s="123"/>
+      <c r="BN1" s="123"/>
+      <c r="BO1" s="123"/>
+      <c r="BP1" s="123"/>
+      <c r="BQ1" s="123"/>
+      <c r="BR1" s="123"/>
+      <c r="BS1" s="123"/>
+      <c r="BT1" s="123"/>
+      <c r="BU1" s="123"/>
+      <c r="BV1" s="123"/>
+      <c r="BW1" s="123"/>
+      <c r="BX1" s="123"/>
+      <c r="BY1" s="123"/>
+      <c r="BZ1" s="123"/>
+      <c r="CA1" s="123"/>
+      <c r="CB1" s="123"/>
+      <c r="CC1" s="123"/>
+      <c r="CD1" s="123"/>
+      <c r="CE1" s="123"/>
+      <c r="CF1" s="123"/>
+      <c r="CG1" s="123"/>
+      <c r="CH1" s="123"/>
+      <c r="CI1" s="123"/>
+      <c r="CJ1" s="123"/>
+      <c r="CK1" s="123"/>
+      <c r="CL1" s="123"/>
+      <c r="CM1" s="123"/>
+      <c r="CN1" s="123"/>
+      <c r="CO1" s="123"/>
+      <c r="CP1" s="123"/>
+      <c r="CQ1" s="123"/>
+      <c r="CR1" s="123"/>
+      <c r="CS1" s="123"/>
+      <c r="CT1" s="123"/>
+      <c r="CU1" s="123"/>
+      <c r="CV1" s="123"/>
+      <c r="CW1" s="123"/>
+      <c r="CX1" s="123"/>
+      <c r="CY1" s="123"/>
+      <c r="CZ1" s="123"/>
+      <c r="DA1" s="123"/>
+      <c r="DB1" s="123"/>
+      <c r="DC1" s="123"/>
+      <c r="DD1" s="123"/>
+      <c r="DE1" s="123"/>
+      <c r="DF1" s="123"/>
+      <c r="DG1" s="123"/>
+      <c r="DH1" s="123"/>
+      <c r="DI1" s="123"/>
+      <c r="DJ1" s="123"/>
+      <c r="DK1" s="123"/>
+      <c r="DL1" s="123"/>
+      <c r="DM1" s="123"/>
+      <c r="DN1" s="123"/>
+      <c r="DO1" s="123"/>
+      <c r="DP1" s="123"/>
+      <c r="DQ1" s="123"/>
+      <c r="DR1" s="123"/>
+      <c r="DS1" s="123"/>
+      <c r="DT1" s="123"/>
+      <c r="DU1" s="123"/>
+      <c r="DV1" s="123"/>
+      <c r="DW1" s="123"/>
     </row>
     <row r="2" spans="1:490" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="135" t="s">
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="131" t="s">
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="131"/>
-      <c r="AI2" s="131"/>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="131"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="131"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="131"/>
-      <c r="AS2" s="131"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="131"/>
-      <c r="AV2" s="131"/>
-      <c r="AW2" s="131"/>
-      <c r="AX2" s="131"/>
-      <c r="AY2" s="131"/>
-      <c r="AZ2" s="131"/>
-      <c r="BA2" s="131"/>
-      <c r="BB2" s="131"/>
-      <c r="BC2" s="131"/>
-      <c r="BD2" s="131"/>
-      <c r="BE2" s="131"/>
-      <c r="BF2" s="131"/>
-      <c r="BG2" s="131"/>
-      <c r="BH2" s="131"/>
-      <c r="BI2" s="131"/>
-      <c r="BJ2" s="132"/>
-      <c r="BK2" s="130" t="s">
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118"/>
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="118"/>
+      <c r="BF2" s="118"/>
+      <c r="BG2" s="118"/>
+      <c r="BH2" s="118"/>
+      <c r="BI2" s="118"/>
+      <c r="BJ2" s="119"/>
+      <c r="BK2" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="131"/>
-      <c r="BM2" s="131"/>
-      <c r="BN2" s="131"/>
-      <c r="BO2" s="131"/>
-      <c r="BP2" s="131"/>
-      <c r="BQ2" s="131"/>
-      <c r="BR2" s="131"/>
-      <c r="BS2" s="131"/>
-      <c r="BT2" s="131"/>
-      <c r="BU2" s="131"/>
-      <c r="BV2" s="131"/>
-      <c r="BW2" s="131"/>
-      <c r="BX2" s="131"/>
-      <c r="BY2" s="131"/>
-      <c r="BZ2" s="131"/>
-      <c r="CA2" s="131"/>
-      <c r="CB2" s="131"/>
-      <c r="CC2" s="131"/>
-      <c r="CD2" s="131"/>
-      <c r="CE2" s="131"/>
-      <c r="CF2" s="131"/>
-      <c r="CG2" s="131"/>
-      <c r="CH2" s="131"/>
-      <c r="CI2" s="131"/>
-      <c r="CJ2" s="131"/>
-      <c r="CK2" s="131"/>
-      <c r="CL2" s="131"/>
-      <c r="CM2" s="131"/>
-      <c r="CN2" s="132"/>
-      <c r="CO2" s="130" t="s">
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="118"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="118"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="118"/>
+      <c r="BV2" s="118"/>
+      <c r="BW2" s="118"/>
+      <c r="BX2" s="118"/>
+      <c r="BY2" s="118"/>
+      <c r="BZ2" s="118"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="118"/>
+      <c r="CC2" s="118"/>
+      <c r="CD2" s="118"/>
+      <c r="CE2" s="118"/>
+      <c r="CF2" s="118"/>
+      <c r="CG2" s="118"/>
+      <c r="CH2" s="118"/>
+      <c r="CI2" s="118"/>
+      <c r="CJ2" s="118"/>
+      <c r="CK2" s="118"/>
+      <c r="CL2" s="118"/>
+      <c r="CM2" s="118"/>
+      <c r="CN2" s="119"/>
+      <c r="CO2" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="CP2" s="131"/>
-      <c r="CQ2" s="131"/>
-      <c r="CR2" s="131"/>
-      <c r="CS2" s="131"/>
-      <c r="CT2" s="131"/>
-      <c r="CU2" s="131"/>
-      <c r="CV2" s="131"/>
-      <c r="CW2" s="131"/>
-      <c r="CX2" s="131"/>
-      <c r="CY2" s="131"/>
-      <c r="CZ2" s="131"/>
-      <c r="DA2" s="131"/>
-      <c r="DB2" s="131"/>
-      <c r="DC2" s="131"/>
-      <c r="DD2" s="131"/>
-      <c r="DE2" s="131"/>
-      <c r="DF2" s="131"/>
-      <c r="DG2" s="131"/>
-      <c r="DH2" s="131"/>
-      <c r="DI2" s="131"/>
-      <c r="DJ2" s="131"/>
-      <c r="DK2" s="131"/>
-      <c r="DL2" s="131"/>
-      <c r="DM2" s="131"/>
-      <c r="DN2" s="131"/>
-      <c r="DO2" s="131"/>
-      <c r="DP2" s="131"/>
-      <c r="DQ2" s="131"/>
-      <c r="DR2" s="131"/>
-      <c r="DS2" s="132"/>
-      <c r="DT2" s="130" t="s">
+      <c r="CP2" s="118"/>
+      <c r="CQ2" s="118"/>
+      <c r="CR2" s="118"/>
+      <c r="CS2" s="118"/>
+      <c r="CT2" s="118"/>
+      <c r="CU2" s="118"/>
+      <c r="CV2" s="118"/>
+      <c r="CW2" s="118"/>
+      <c r="CX2" s="118"/>
+      <c r="CY2" s="118"/>
+      <c r="CZ2" s="118"/>
+      <c r="DA2" s="118"/>
+      <c r="DB2" s="118"/>
+      <c r="DC2" s="118"/>
+      <c r="DD2" s="118"/>
+      <c r="DE2" s="118"/>
+      <c r="DF2" s="118"/>
+      <c r="DG2" s="118"/>
+      <c r="DH2" s="118"/>
+      <c r="DI2" s="118"/>
+      <c r="DJ2" s="118"/>
+      <c r="DK2" s="118"/>
+      <c r="DL2" s="118"/>
+      <c r="DM2" s="118"/>
+      <c r="DN2" s="118"/>
+      <c r="DO2" s="118"/>
+      <c r="DP2" s="118"/>
+      <c r="DQ2" s="118"/>
+      <c r="DR2" s="118"/>
+      <c r="DS2" s="119"/>
+      <c r="DT2" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="DU2" s="131"/>
-      <c r="DV2" s="131"/>
-      <c r="DW2" s="132"/>
+      <c r="DU2" s="118"/>
+      <c r="DV2" s="118"/>
+      <c r="DW2" s="119"/>
     </row>
     <row r="3" spans="1:490" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
@@ -2659,159 +2659,159 @@
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="121">
+      <c r="I3" s="142">
         <v>6</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114">
         <v>7</v>
       </c>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120">
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114">
         <v>8</v>
       </c>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="133">
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="120">
         <v>9</v>
       </c>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="133"/>
-      <c r="AI3" s="133"/>
-      <c r="AJ3" s="133"/>
-      <c r="AK3" s="120">
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="114">
         <v>10</v>
       </c>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="120"/>
-      <c r="AP3" s="120"/>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120">
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="114">
         <v>11</v>
       </c>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="120"/>
-      <c r="AY3" s="120">
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="114">
         <v>12</v>
       </c>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="120"/>
-      <c r="BB3" s="120"/>
-      <c r="BC3" s="120"/>
-      <c r="BD3" s="120"/>
-      <c r="BE3" s="120"/>
-      <c r="BF3" s="120">
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="114">
         <v>13</v>
       </c>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="120"/>
-      <c r="BI3" s="120"/>
-      <c r="BJ3" s="120"/>
-      <c r="BK3" s="120"/>
-      <c r="BL3" s="120"/>
-      <c r="BM3" s="120">
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="114"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="114"/>
+      <c r="BK3" s="114"/>
+      <c r="BL3" s="114"/>
+      <c r="BM3" s="114">
         <v>14</v>
       </c>
-      <c r="BN3" s="120"/>
-      <c r="BO3" s="120"/>
-      <c r="BP3" s="120"/>
-      <c r="BQ3" s="120"/>
-      <c r="BR3" s="120"/>
-      <c r="BS3" s="120"/>
-      <c r="BT3" s="120">
+      <c r="BN3" s="114"/>
+      <c r="BO3" s="114"/>
+      <c r="BP3" s="114"/>
+      <c r="BQ3" s="114"/>
+      <c r="BR3" s="114"/>
+      <c r="BS3" s="114"/>
+      <c r="BT3" s="114">
         <v>15</v>
       </c>
-      <c r="BU3" s="120"/>
-      <c r="BV3" s="120"/>
-      <c r="BW3" s="120"/>
-      <c r="BX3" s="120"/>
-      <c r="BY3" s="120"/>
-      <c r="BZ3" s="120"/>
-      <c r="CA3" s="120">
+      <c r="BU3" s="114"/>
+      <c r="BV3" s="114"/>
+      <c r="BW3" s="114"/>
+      <c r="BX3" s="114"/>
+      <c r="BY3" s="114"/>
+      <c r="BZ3" s="114"/>
+      <c r="CA3" s="114">
         <v>16</v>
       </c>
-      <c r="CB3" s="120"/>
-      <c r="CC3" s="120"/>
-      <c r="CD3" s="120"/>
-      <c r="CE3" s="120"/>
-      <c r="CF3" s="120"/>
-      <c r="CG3" s="120"/>
-      <c r="CH3" s="120">
+      <c r="CB3" s="114"/>
+      <c r="CC3" s="114"/>
+      <c r="CD3" s="114"/>
+      <c r="CE3" s="114"/>
+      <c r="CF3" s="114"/>
+      <c r="CG3" s="114"/>
+      <c r="CH3" s="114">
         <v>17</v>
       </c>
-      <c r="CI3" s="120"/>
-      <c r="CJ3" s="120"/>
-      <c r="CK3" s="120"/>
-      <c r="CL3" s="120"/>
-      <c r="CM3" s="120"/>
-      <c r="CN3" s="120"/>
-      <c r="CO3" s="133">
+      <c r="CI3" s="114"/>
+      <c r="CJ3" s="114"/>
+      <c r="CK3" s="114"/>
+      <c r="CL3" s="114"/>
+      <c r="CM3" s="114"/>
+      <c r="CN3" s="114"/>
+      <c r="CO3" s="120">
         <v>18</v>
       </c>
-      <c r="CP3" s="133"/>
-      <c r="CQ3" s="133"/>
-      <c r="CR3" s="133"/>
-      <c r="CS3" s="133"/>
-      <c r="CT3" s="133"/>
-      <c r="CU3" s="133"/>
-      <c r="CV3" s="133">
+      <c r="CP3" s="120"/>
+      <c r="CQ3" s="120"/>
+      <c r="CR3" s="120"/>
+      <c r="CS3" s="120"/>
+      <c r="CT3" s="120"/>
+      <c r="CU3" s="120"/>
+      <c r="CV3" s="120">
         <v>19</v>
       </c>
-      <c r="CW3" s="133"/>
-      <c r="CX3" s="133"/>
-      <c r="CY3" s="133"/>
-      <c r="CZ3" s="133"/>
-      <c r="DA3" s="133"/>
-      <c r="DB3" s="133"/>
-      <c r="DC3" s="133">
+      <c r="CW3" s="120"/>
+      <c r="CX3" s="120"/>
+      <c r="CY3" s="120"/>
+      <c r="CZ3" s="120"/>
+      <c r="DA3" s="120"/>
+      <c r="DB3" s="120"/>
+      <c r="DC3" s="120">
         <v>20</v>
       </c>
-      <c r="DD3" s="133"/>
-      <c r="DE3" s="133"/>
-      <c r="DF3" s="133"/>
-      <c r="DG3" s="133"/>
-      <c r="DH3" s="133"/>
-      <c r="DI3" s="133"/>
-      <c r="DJ3" s="133">
+      <c r="DD3" s="120"/>
+      <c r="DE3" s="120"/>
+      <c r="DF3" s="120"/>
+      <c r="DG3" s="120"/>
+      <c r="DH3" s="120"/>
+      <c r="DI3" s="120"/>
+      <c r="DJ3" s="120">
         <v>21</v>
       </c>
-      <c r="DK3" s="133"/>
-      <c r="DL3" s="133"/>
-      <c r="DM3" s="133"/>
-      <c r="DN3" s="133"/>
-      <c r="DO3" s="133"/>
-      <c r="DP3" s="133"/>
-      <c r="DQ3" s="133">
+      <c r="DK3" s="120"/>
+      <c r="DL3" s="120"/>
+      <c r="DM3" s="120"/>
+      <c r="DN3" s="120"/>
+      <c r="DO3" s="120"/>
+      <c r="DP3" s="120"/>
+      <c r="DQ3" s="120">
         <v>22</v>
       </c>
-      <c r="DR3" s="133"/>
-      <c r="DS3" s="133"/>
-      <c r="DT3" s="133"/>
-      <c r="DU3" s="133"/>
-      <c r="DV3" s="133"/>
-      <c r="DW3" s="133"/>
+      <c r="DR3" s="120"/>
+      <c r="DS3" s="120"/>
+      <c r="DT3" s="120"/>
+      <c r="DU3" s="120"/>
+      <c r="DV3" s="120"/>
+      <c r="DW3" s="120"/>
     </row>
     <row r="4" spans="1:490" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
@@ -3193,10 +3193,10 @@
       </c>
     </row>
     <row r="5" spans="1:490" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="72">
@@ -6896,10 +6896,10 @@
       <c r="RV12" s="5"/>
     </row>
     <row r="13" spans="1:490" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="136"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="72">
@@ -7063,7 +7063,7 @@
       <c r="H14" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="106" t="s">
+      <c r="I14" s="115" t="s">
         <v>171</v>
       </c>
       <c r="J14" s="54"/>
@@ -7211,7 +7211,7 @@
       <c r="H15" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="107"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="54"/>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
@@ -7350,7 +7350,7 @@
       <c r="H16" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="107"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="54"/>
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
@@ -7496,7 +7496,7 @@
       <c r="H17" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="107"/>
+      <c r="I17" s="116"/>
       <c r="J17" s="54"/>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
@@ -7642,7 +7642,7 @@
       <c r="H18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="107"/>
+      <c r="I18" s="116"/>
       <c r="J18" s="54"/>
       <c r="K18" s="54"/>
       <c r="L18" s="54"/>
@@ -7788,7 +7788,7 @@
       <c r="H19" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="107"/>
+      <c r="I19" s="116"/>
       <c r="J19" s="54"/>
       <c r="K19" s="54"/>
       <c r="L19" s="54"/>
@@ -7934,7 +7934,7 @@
       <c r="H20" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="107"/>
+      <c r="I20" s="116"/>
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
       <c r="L20" s="54"/>
@@ -8080,7 +8080,7 @@
       <c r="H21" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I21" s="107"/>
+      <c r="I21" s="116"/>
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
       <c r="L21" s="54"/>
@@ -8219,7 +8219,7 @@
       <c r="H22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="107"/>
+      <c r="I22" s="116"/>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
@@ -8367,7 +8367,7 @@
       <c r="H23" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="107"/>
+      <c r="I23" s="116"/>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
@@ -8513,7 +8513,7 @@
       <c r="H24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="107"/>
+      <c r="I24" s="116"/>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
@@ -8659,7 +8659,7 @@
       <c r="H25" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="107"/>
+      <c r="I25" s="116"/>
       <c r="J25" s="43"/>
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
@@ -8805,7 +8805,7 @@
       <c r="H26" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="111"/>
+      <c r="I26" s="135"/>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
@@ -8928,10 +8928,10 @@
       <c r="DW26" s="43"/>
     </row>
     <row r="27" spans="1:127" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="122"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
       <c r="E27" s="72">
@@ -9114,7 +9114,7 @@
       <c r="AC28" s="43"/>
       <c r="AD28" s="43"/>
       <c r="AE28" s="43"/>
-      <c r="AF28" s="106" t="s">
+      <c r="AF28" s="115" t="s">
         <v>169</v>
       </c>
       <c r="AG28" s="54"/>
@@ -9262,7 +9262,7 @@
       <c r="AC29" s="43"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="43"/>
-      <c r="AF29" s="107"/>
+      <c r="AF29" s="116"/>
       <c r="AG29" s="54"/>
       <c r="AH29" s="43"/>
       <c r="AI29" s="43"/>
@@ -9408,7 +9408,7 @@
       <c r="AC30" s="43"/>
       <c r="AD30" s="43"/>
       <c r="AE30" s="43"/>
-      <c r="AF30" s="107"/>
+      <c r="AF30" s="116"/>
       <c r="AG30" s="54">
         <v>10</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="AC31" s="43"/>
       <c r="AD31" s="43"/>
       <c r="AE31" s="43"/>
-      <c r="AF31" s="107"/>
+      <c r="AF31" s="116"/>
       <c r="AG31" s="43"/>
       <c r="AH31" s="54"/>
       <c r="AI31" s="54"/>
@@ -9702,7 +9702,7 @@
       <c r="AC32" s="43"/>
       <c r="AD32" s="43"/>
       <c r="AE32" s="43"/>
-      <c r="AF32" s="107"/>
+      <c r="AF32" s="116"/>
       <c r="AG32" s="43"/>
       <c r="AH32" s="43"/>
       <c r="AI32" s="43"/>
@@ -9848,7 +9848,7 @@
       <c r="AC33" s="43"/>
       <c r="AD33" s="43"/>
       <c r="AE33" s="43"/>
-      <c r="AF33" s="107"/>
+      <c r="AF33" s="116"/>
       <c r="AG33" s="43"/>
       <c r="AH33" s="43"/>
       <c r="AI33" s="43"/>
@@ -9994,7 +9994,7 @@
       <c r="AC34" s="43"/>
       <c r="AD34" s="43"/>
       <c r="AE34" s="43"/>
-      <c r="AF34" s="107"/>
+      <c r="AF34" s="116"/>
       <c r="AG34" s="43"/>
       <c r="AH34" s="43"/>
       <c r="AI34" s="43"/>
@@ -10092,10 +10092,10 @@
       <c r="DW34" s="38"/>
     </row>
     <row r="35" spans="1:127" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="122"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
       <c r="E35" s="72">
@@ -10314,7 +10314,7 @@
       <c r="BI36" s="43"/>
       <c r="BJ36" s="43"/>
       <c r="BK36" s="43"/>
-      <c r="BL36" s="106" t="s">
+      <c r="BL36" s="115" t="s">
         <v>170</v>
       </c>
       <c r="BM36" s="54">
@@ -10464,7 +10464,7 @@
       <c r="BI37" s="43"/>
       <c r="BJ37" s="43"/>
       <c r="BK37" s="43"/>
-      <c r="BL37" s="107"/>
+      <c r="BL37" s="116"/>
       <c r="BM37" s="43"/>
       <c r="BN37" s="43"/>
       <c r="BO37" s="43"/>
@@ -10614,7 +10614,7 @@
       <c r="BI38" s="43"/>
       <c r="BJ38" s="43"/>
       <c r="BK38" s="43"/>
-      <c r="BL38" s="107"/>
+      <c r="BL38" s="116"/>
       <c r="BM38" s="43"/>
       <c r="BN38" s="43"/>
       <c r="BO38" s="43"/>
@@ -10760,7 +10760,7 @@
       <c r="BI39" s="43"/>
       <c r="BJ39" s="43"/>
       <c r="BK39" s="43"/>
-      <c r="BL39" s="107"/>
+      <c r="BL39" s="116"/>
       <c r="BM39" s="43"/>
       <c r="BN39" s="43"/>
       <c r="BO39" s="43"/>
@@ -10908,7 +10908,7 @@
       <c r="BI40" s="43"/>
       <c r="BJ40" s="43"/>
       <c r="BK40" s="43"/>
-      <c r="BL40" s="107"/>
+      <c r="BL40" s="116"/>
       <c r="BM40" s="43"/>
       <c r="BN40" s="43"/>
       <c r="BO40" s="43"/>
@@ -11056,7 +11056,7 @@
       <c r="BI41" s="43"/>
       <c r="BJ41" s="43"/>
       <c r="BK41" s="43"/>
-      <c r="BL41" s="107"/>
+      <c r="BL41" s="116"/>
       <c r="BM41" s="43"/>
       <c r="BN41" s="43"/>
       <c r="BO41" s="43"/>
@@ -11204,7 +11204,7 @@
       <c r="BI42" s="43"/>
       <c r="BJ42" s="43"/>
       <c r="BK42" s="43"/>
-      <c r="BL42" s="107"/>
+      <c r="BL42" s="116"/>
       <c r="BM42" s="54"/>
       <c r="BN42" s="54"/>
       <c r="BO42" s="54"/>
@@ -11350,7 +11350,7 @@
       <c r="BI43" s="43"/>
       <c r="BJ43" s="43"/>
       <c r="BK43" s="43"/>
-      <c r="BL43" s="107"/>
+      <c r="BL43" s="116"/>
       <c r="BM43" s="43"/>
       <c r="BN43" s="43"/>
       <c r="BO43" s="43"/>
@@ -11498,7 +11498,7 @@
       <c r="BI44" s="43"/>
       <c r="BJ44" s="43"/>
       <c r="BK44" s="43"/>
-      <c r="BL44" s="107"/>
+      <c r="BL44" s="116"/>
       <c r="BM44" s="43"/>
       <c r="BN44" s="43"/>
       <c r="BO44" s="43"/>
@@ -11644,7 +11644,7 @@
       <c r="BI45" s="43"/>
       <c r="BJ45" s="43"/>
       <c r="BK45" s="43"/>
-      <c r="BL45" s="107"/>
+      <c r="BL45" s="116"/>
       <c r="BM45" s="54"/>
       <c r="BN45" s="54"/>
       <c r="BO45" s="54"/>
@@ -11790,7 +11790,7 @@
       <c r="BI46" s="43"/>
       <c r="BJ46" s="43"/>
       <c r="BK46" s="43"/>
-      <c r="BL46" s="107"/>
+      <c r="BL46" s="116"/>
       <c r="BM46" s="43"/>
       <c r="BN46" s="43"/>
       <c r="BO46" s="43"/>
@@ -11936,7 +11936,7 @@
       <c r="BI47" s="43"/>
       <c r="BJ47" s="43"/>
       <c r="BK47" s="43"/>
-      <c r="BL47" s="107"/>
+      <c r="BL47" s="116"/>
       <c r="BM47" s="43"/>
       <c r="BN47" s="43"/>
       <c r="BO47" s="43"/>
@@ -12002,10 +12002,10 @@
       <c r="DW47" s="45"/>
     </row>
     <row r="48" spans="1:127" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122" t="s">
+      <c r="A48" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="122"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="71"/>
       <c r="D48" s="71"/>
       <c r="E48" s="72">
@@ -12269,7 +12269,7 @@
       <c r="DB49" s="45"/>
       <c r="DC49" s="45"/>
       <c r="DD49" s="45"/>
-      <c r="DE49" s="108" t="s">
+      <c r="DE49" s="132" t="s">
         <v>172</v>
       </c>
       <c r="DF49" s="68"/>
@@ -12417,7 +12417,7 @@
       <c r="DB50" s="45"/>
       <c r="DC50" s="45"/>
       <c r="DD50" s="45"/>
-      <c r="DE50" s="109"/>
+      <c r="DE50" s="133"/>
       <c r="DF50" s="45"/>
       <c r="DG50" s="45"/>
       <c r="DH50" s="45"/>
@@ -12563,7 +12563,7 @@
       <c r="DB51" s="45"/>
       <c r="DC51" s="45"/>
       <c r="DD51" s="45"/>
-      <c r="DE51" s="109"/>
+      <c r="DE51" s="133"/>
       <c r="DF51" s="45"/>
       <c r="DG51" s="45"/>
       <c r="DH51" s="45"/>
@@ -12709,7 +12709,7 @@
       <c r="DB52" s="45"/>
       <c r="DC52" s="45"/>
       <c r="DD52" s="45"/>
-      <c r="DE52" s="109"/>
+      <c r="DE52" s="133"/>
       <c r="DF52" s="45"/>
       <c r="DG52" s="45"/>
       <c r="DH52" s="45"/>
@@ -12855,7 +12855,7 @@
       <c r="DB53" s="45"/>
       <c r="DC53" s="45"/>
       <c r="DD53" s="45"/>
-      <c r="DE53" s="109"/>
+      <c r="DE53" s="133"/>
       <c r="DF53" s="45"/>
       <c r="DG53" s="45"/>
       <c r="DH53" s="45"/>
@@ -13001,7 +13001,7 @@
       <c r="DB54" s="45"/>
       <c r="DC54" s="45"/>
       <c r="DD54" s="45"/>
-      <c r="DE54" s="110"/>
+      <c r="DE54" s="134"/>
       <c r="DF54" s="45"/>
       <c r="DG54" s="45"/>
       <c r="DH54" s="45"/>
@@ -13024,10 +13024,10 @@
       </c>
     </row>
     <row r="55" spans="1:127" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="137" t="s">
+      <c r="A55" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="138"/>
+      <c r="B55" s="107"/>
       <c r="C55" s="71"/>
       <c r="D55" s="71"/>
       <c r="E55" s="72">
@@ -13458,10 +13458,10 @@
       <c r="DW57" s="45"/>
     </row>
     <row r="58" spans="1:127" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="137" t="s">
+      <c r="A58" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="138"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="71"/>
       <c r="D58" s="71"/>
       <c r="E58" s="71">
@@ -13943,10 +13943,10 @@
       <c r="B63" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="124" t="s">
+      <c r="C63" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="124"/>
+      <c r="D63" s="126"/>
       <c r="E63" s="31">
         <f>SUM(E13+E27+E35+E48+E55+E58)</f>
         <v>294</v>
@@ -14319,14 +14319,14 @@
       <c r="DR65" s="3"/>
     </row>
     <row r="66" spans="1:122" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="125" t="s">
+      <c r="A66" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -14449,14 +14449,14 @@
         <v>24</v>
       </c>
       <c r="B67" s="82"/>
-      <c r="C67" s="128" t="s">
+      <c r="C67" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="129"/>
-      <c r="E67" s="126" t="s">
+      <c r="D67" s="131"/>
+      <c r="E67" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="127"/>
+      <c r="F67" s="129"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -14575,10 +14575,10 @@
       <c r="DR67" s="3"/>
     </row>
     <row r="68" spans="1:122" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="139" t="s">
+      <c r="A68" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="140"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="21" t="s">
         <v>28</v>
       </c>
@@ -14705,10 +14705,10 @@
       <c r="DR68" s="3"/>
     </row>
     <row r="69" spans="1:122" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="142"/>
+      <c r="B69" s="111"/>
       <c r="C69" s="21" t="s">
         <v>136</v>
       </c>
@@ -14835,10 +14835,10 @@
       <c r="DR69" s="3"/>
     </row>
     <row r="70" spans="1:122" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="141" t="s">
+      <c r="A70" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="142"/>
+      <c r="B70" s="111"/>
       <c r="C70" s="21" t="s">
         <v>135</v>
       </c>
@@ -15088,11 +15088,11 @@
       <c r="DR71" s="3"/>
     </row>
     <row r="72" spans="1:122" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="123" t="s">
+      <c r="A72" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="123"/>
-      <c r="C72" s="123"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -16889,16 +16889,27 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AF28:AF34"/>
+    <mergeCell ref="BL36:BL47"/>
+    <mergeCell ref="DE49:DE54"/>
+    <mergeCell ref="I14:I26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="BT3:BZ3"/>
+    <mergeCell ref="CA3:CG3"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="DT2:DW2"/>
     <mergeCell ref="AD3:AJ3"/>
     <mergeCell ref="DQ3:DW3"/>
@@ -16915,27 +16926,16 @@
     <mergeCell ref="DC3:DI3"/>
     <mergeCell ref="DJ3:DP3"/>
     <mergeCell ref="BM3:BS3"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="BL36:BL47"/>
-    <mergeCell ref="DE49:DE54"/>
-    <mergeCell ref="I14:I26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="BT3:BZ3"/>
-    <mergeCell ref="CA3:CG3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AF28:AF34"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G13:G16 G50 G53:G60 G18:G48">
@@ -18398,15 +18398,49 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <o195d6c1bf5b49ddb4b5a0bdd0d7564a xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o195d6c1bf5b49ddb4b5a0bdd0d7564a>
+    <jdda2a40df1a47b289bd5023e16167f7 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jdda2a40df1a47b289bd5023e16167f7>
+    <TaxCatchAll xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76"/>
+    <PcDocVersionPost xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76" xsi:nil="true"/>
+    <c7ba11a0e535442abd1669e8b2a6dd00 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c7ba11a0e535442abd1669e8b2a6dd00>
+    <PcDocDocumentLanguage xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76" xsi:nil="true"/>
+    <PcDocContentResponsible xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </PcDocContentResponsible>
+    <deca6f8e59c8429982e83a3cb73bf7c1 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </deca6f8e59c8429982e83a3cb73bf7c1>
+    <j7d6d59a35cd41dbbac34c0fd2265e61 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j7d6d59a35cd41dbbac34c0fd2265e61>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document Post" ma:contentTypeID="0x010100B16592B4E5C9BF4294A34A20173BD395005B86E37CE8CDE74CAA78C9F0FEBB6E00" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77766ac810dc7fc4f040f98d51112f11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d113c5f62fac15487e582ba4d304358" ns3:_="">
     <xsd:import namespace="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76"/>
@@ -18635,59 +18669,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <o195d6c1bf5b49ddb4b5a0bdd0d7564a xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o195d6c1bf5b49ddb4b5a0bdd0d7564a>
-    <jdda2a40df1a47b289bd5023e16167f7 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jdda2a40df1a47b289bd5023e16167f7>
-    <TaxCatchAll xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76"/>
-    <PcDocVersionPost xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76" xsi:nil="true"/>
-    <c7ba11a0e535442abd1669e8b2a6dd00 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c7ba11a0e535442abd1669e8b2a6dd00>
-    <PcDocDocumentLanguage xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76" xsi:nil="true"/>
-    <PcDocContentResponsible xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </PcDocContentResponsible>
-    <deca6f8e59c8429982e83a3cb73bf7c1 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </deca6f8e59c8429982e83a3cb73bf7c1>
-    <j7d6d59a35cd41dbbac34c0fd2265e61 xmlns="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j7d6d59a35cd41dbbac34c0fd2265e61>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB799A6C-5F6F-437E-9C72-E187EFD59325}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBF8AD2-FCC4-4B75-8989-2E4EF09D0A1A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CDF7DA-8D8A-4B91-9954-6700C656E6C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{566DEF72-72F4-4194-910D-E2F240AE2DE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18705,26 +18721,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15CDF7DA-8D8A-4B91-9954-6700C656E6C3}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB799A6C-5F6F-437E-9C72-E187EFD59325}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e1187ff-9b38-48f9-9a77-a1b2b7bb2a76"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBF8AD2-FCC4-4B75-8989-2E4EF09D0A1A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>